--- a/Data/myData.xlsx
+++ b/Data/myData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\POM-8am-dec21\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811EF3CE-1166-435E-93C0-25F5CDBC694D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6AC754-18DA-4184-9DC2-71A091322C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B2210A89-F138-43C3-84A2-0B15EA6B4077}"/>
   </bookViews>
@@ -190,7 +190,7 @@
     <t>actual.add(rs.getString("</t>
   </si>
   <si>
-    <t>Sudhir4</t>
+    <t>Sudhir8</t>
   </si>
 </sst>
 </file>
@@ -792,7 +792,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1189,7 +1189,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="4" spans="2:17" ht="24">
+    <row r="4" spans="2:17" ht="23.4">
       <c r="B4" s="5"/>
       <c r="D4" s="3"/>
       <c r="I4" s="4" t="s">
